--- a/2 курс/1 семестр/МЗЯП/ЛР 9/9.xlsx
+++ b/2 курс/1 семестр/МЗЯП/ЛР 9/9.xlsx
@@ -14,17 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,9 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -355,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,16 +391,58 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="B1">
-        <f>(2 * LOG(SQRT(A1^4 - 1), 2)) / (PI() / (SIN(A1) + PI() / 6)) - TAN(LOG(SQRT(SIN(A1^2)), 2))^2</f>
-        <v>4.7434340177556975E-2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B3" si="0">(2 * LOG(SQRT(A2^4 - 1), 2)) / (PI() / (SIN(A2) + PI() / 6)) - TAN(LOG(SQRT(SIN(A2^2)), 2))^2</f>
+        <v>-0.98717618662333539</v>
+      </c>
+      <c r="C2">
+        <f>IF(A2&lt;1.1, SIN(A2) + COS(A2), IF(A2 &lt;= 5.1, POWER(2, A2) - 1, 9 * A2 * A2 + 9))</f>
+        <v>1.3649942734857439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1.4170372366737574</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C4" si="1">IF(A3&lt;1.1, SIN(A3) + COS(A3), IF(A3 &lt;= 5.1, POWER(2, A3) - 1, 9 * A3 * A3 + 9))</f>
+        <v>5.062866266041592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B4">
+        <f>(2 * LOG(SQRT(A4^4 - 1), 2)) / (PI() / (SIN(A4) + PI() / 6)) - TAN(LOG(SQRT(SIN(A4^2)), 2))^2</f>
+        <v>3.5481093482847847</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>425.15999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2 курс/1 семестр/МЗЯП/ЛР 9/9.xlsx
+++ b/2 курс/1 семестр/МЗЯП/ЛР 9/9.xlsx
@@ -29,6 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -76,6 +79,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -383,12 +387,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -406,11 +412,11 @@
       <c r="A2" s="1">
         <v>1.05</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <f t="shared" ref="B2:B3" si="0">(2 * LOG(SQRT(A2^4 - 1), 2)) / (PI() / (SIN(A2) + PI() / 6)) - TAN(LOG(SQRT(SIN(A2^2)), 2))^2</f>
         <v>-0.98717618662333539</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>IF(A2&lt;1.1, SIN(A2) + COS(A2), IF(A2 &lt;= 5.1, POWER(2, A2) - 1, 9 * A2 * A2 + 9))</f>
         <v>1.3649942734857439</v>
       </c>
@@ -419,11 +425,11 @@
       <c r="A3" s="1">
         <v>2.6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <f t="shared" si="0"/>
         <v>1.4170372366737574</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C4" si="1">IF(A3&lt;1.1, SIN(A3) + COS(A3), IF(A3 &lt;= 5.1, POWER(2, A3) - 1, 9 * A3 * A3 + 9))</f>
         <v>5.062866266041592</v>
       </c>
@@ -432,11 +438,11 @@
       <c r="A4" s="1">
         <v>6.8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <f>(2 * LOG(SQRT(A4^4 - 1), 2)) / (PI() / (SIN(A4) + PI() / 6)) - TAN(LOG(SQRT(SIN(A4^2)), 2))^2</f>
         <v>3.5481093482847847</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f t="shared" si="1"/>
         <v>425.15999999999997</v>
       </c>
